--- a/lemlab/db_connection/db_spec.xlsx
+++ b/lemlab/db_connection/db_spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga59zah\PycharmProjects\lemlab\lemlab\db_connection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0E4ECD-93A8-4D2A-8384-7C52A6FE67A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB8095C-0ED0-4D95-AB82-6A5E1AAB73F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23018" windowHeight="8198" firstSheet="4" activeTab="10" xr2:uid="{8A73A98A-1AA0-4392-99EB-19123933F8CF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8196" activeTab="1" xr2:uid="{8A73A98A-1AA0-4392-99EB-19123933F8CF}"/>
   </bookViews>
   <sheets>
     <sheet name="info_user" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="62">
   <si>
     <t>column</t>
   </si>
@@ -88,9 +88,6 @@
     <t>type_meter</t>
   </si>
   <si>
-    <t>id_meter_main</t>
-  </si>
-  <si>
     <t>id_aggregator</t>
   </si>
   <si>
@@ -218,6 +215,12 @@
   </si>
   <si>
     <t>delta_balance</t>
+  </si>
+  <si>
+    <t>id_meter_super</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -578,26 +581,26 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,9 +638,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -673,9 +676,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -711,7 +714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -729,91 +732,91 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -832,26 +835,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40B8FFD-9FC9-4B3E-88F5-FC144F22B7F1}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -859,30 +862,30 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -909,9 +912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -938,14 +941,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -957,25 +960,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B21AC11-891D-4F6A-BC34-E16D5A0919C6}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,16 +989,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -1004,12 +1007,12 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1039,9 +1042,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1050,10 +1053,10 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1071,7 +1074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1089,22 +1092,22 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.53125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,130 +1115,130 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1255,169 +1258,169 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="A1:L14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
       <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1440,36 +1443,36 @@
       <selection activeCell="G14" sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
@@ -1483,9 +1486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1500,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1515,38 +1518,38 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1561,9 +1564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1578,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1596,30 +1599,30 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1631,9 +1634,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1645,7 +1648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1663,16 +1666,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1680,18 +1683,18 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1706,9 +1709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1723,7 +1726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1741,39 +1744,39 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1791,9 +1794,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -1811,7 +1814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
